--- a/EAS/Toetused.xlsx
+++ b/EAS/Toetused.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7724" uniqueCount="3763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="3762">
   <si>
     <t xml:space="preserve">Registrikood</t>
   </si>
@@ -11114,9 +11114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hunting Sister OÜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Signe Krigul</t>
@@ -11323,6 +11320,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -11406,8 +11404,8 @@
   </sheetPr>
   <dimension ref="A1:D3828"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3799" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3763" activeCellId="0" sqref="A3763"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3722" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3780" activeCellId="0" sqref="D3780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -64088,599 +64086,599 @@
       </c>
     </row>
     <row r="3763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3763" s="0" t="s">
+      <c r="A3763" s="0" t="n">
+        <v>11844735</v>
+      </c>
+      <c r="B3763" s="0" t="s">
         <v>3698</v>
       </c>
-      <c r="B3763" s="0" t="s">
+      <c r="C3763" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3763" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3764" s="0" t="n">
+        <v>11103192</v>
+      </c>
+      <c r="B3764" s="0" t="s">
         <v>3699</v>
       </c>
-      <c r="C3763" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3763" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3764" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3764" s="0" t="s">
+      <c r="C3764" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3764" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3765" s="0" t="n">
+        <v>11129961</v>
+      </c>
+      <c r="B3765" s="0" t="s">
         <v>3700</v>
       </c>
-      <c r="C3764" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3764" s="0" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3765" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3765" s="0" t="s">
+      <c r="C3765" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3765" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3766" s="0" t="n">
+        <v>10027112</v>
+      </c>
+      <c r="B3766" s="0" t="s">
         <v>3701</v>
       </c>
-      <c r="C3765" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3765" s="0" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3766" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3766" s="0" t="s">
+      <c r="C3766" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3766" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3767" s="0" t="n">
+        <v>11630721</v>
+      </c>
+      <c r="B3767" s="0" t="s">
         <v>3702</v>
       </c>
-      <c r="C3766" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3766" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3767" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3767" s="0" t="s">
+      <c r="C3767" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3767" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3768" s="0" t="n">
+        <v>11601091</v>
+      </c>
+      <c r="B3768" s="0" t="s">
         <v>3703</v>
       </c>
-      <c r="C3767" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3767" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3768" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3768" s="0" t="s">
+      <c r="C3768" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3768" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3769" s="0" t="n">
+        <v>11835958</v>
+      </c>
+      <c r="B3769" s="0" t="s">
         <v>3704</v>
       </c>
-      <c r="C3768" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3768" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3769" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3769" s="0" t="s">
+      <c r="C3769" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3769" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3770" s="0" t="n">
+        <v>11565857</v>
+      </c>
+      <c r="B3770" s="0" t="s">
         <v>3705</v>
       </c>
-      <c r="C3769" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3769" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3770" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3770" s="0" t="s">
+      <c r="C3770" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3770" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3771" s="0" t="n">
+        <v>10760516</v>
+      </c>
+      <c r="B3771" s="0" t="s">
         <v>3706</v>
       </c>
-      <c r="C3770" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3770" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3771" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3771" s="0" t="s">
+      <c r="C3771" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3771" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3772" s="0" t="n">
+        <v>11017050</v>
+      </c>
+      <c r="B3772" s="0" t="s">
         <v>3707</v>
       </c>
-      <c r="C3771" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3771" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3772" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3772" s="0" t="s">
+      <c r="C3772" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3772" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3773" s="0" t="n">
+        <v>11831553</v>
+      </c>
+      <c r="B3773" s="0" t="s">
         <v>3708</v>
       </c>
-      <c r="C3772" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3772" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3773" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3773" s="0" t="s">
+      <c r="C3773" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3773" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3774" s="0" t="n">
+        <v>11669887</v>
+      </c>
+      <c r="B3774" s="0" t="s">
         <v>3709</v>
       </c>
-      <c r="C3773" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3773" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3774" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3774" s="0" t="s">
+      <c r="C3774" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3774" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3775" s="0" t="n">
+        <v>11864608</v>
+      </c>
+      <c r="B3775" s="0" t="s">
         <v>3710</v>
       </c>
-      <c r="C3774" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3774" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3775" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3775" s="0" t="s">
+      <c r="C3775" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3775" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3776" s="0" t="n">
+        <v>14275373</v>
+      </c>
+      <c r="B3776" s="0" t="s">
         <v>3711</v>
       </c>
-      <c r="C3775" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3775" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3776" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3776" s="0" t="s">
+      <c r="C3776" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3776" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3777" s="0" t="n">
+        <v>11810469</v>
+      </c>
+      <c r="B3777" s="0" t="s">
         <v>3712</v>
       </c>
-      <c r="C3776" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3776" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3777" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3777" s="0" t="s">
+      <c r="C3777" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3777" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3778" s="0" t="n">
+        <v>11562362</v>
+      </c>
+      <c r="B3778" s="0" t="s">
         <v>3713</v>
       </c>
-      <c r="C3777" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3777" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3778" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3778" s="0" t="s">
+      <c r="C3778" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3778" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3779" s="0" t="n">
+        <v>14141247</v>
+      </c>
+      <c r="B3779" s="0" t="s">
         <v>3714</v>
       </c>
-      <c r="C3778" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3778" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3779" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3779" s="0" t="s">
+      <c r="C3779" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3779" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3780" s="0" t="n">
+        <v>11724913</v>
+      </c>
+      <c r="B3780" s="0" t="s">
         <v>3715</v>
       </c>
-      <c r="C3779" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3779" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3780" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3780" s="0" t="s">
+      <c r="C3780" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3780" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3781" s="0" t="n">
+        <v>11436249</v>
+      </c>
+      <c r="B3781" s="0" t="s">
         <v>3716</v>
       </c>
-      <c r="C3780" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3780" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3781" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3781" s="0" t="s">
+      <c r="C3781" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3781" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3782" s="0" t="n">
+        <v>12941038</v>
+      </c>
+      <c r="B3782" s="0" t="s">
         <v>3717</v>
       </c>
-      <c r="C3781" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3781" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3782" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3782" s="0" t="s">
+      <c r="C3782" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3782" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3783" s="0" t="n">
+        <v>11209306</v>
+      </c>
+      <c r="B3783" s="0" t="s">
         <v>3718</v>
       </c>
-      <c r="C3782" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3782" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3783" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3783" s="0" t="s">
+      <c r="C3783" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3783" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3784" s="0" t="n">
+        <v>10068080</v>
+      </c>
+      <c r="B3784" s="0" t="s">
         <v>3719</v>
       </c>
-      <c r="C3783" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3783" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3784" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3784" s="0" t="s">
+      <c r="C3784" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3784" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3785" s="0" t="n">
+        <v>12852279</v>
+      </c>
+      <c r="B3785" s="0" t="s">
         <v>3720</v>
       </c>
-      <c r="C3784" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3784" s="0" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3785" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3785" s="0" t="s">
+      <c r="C3785" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3785" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3786" s="0" t="n">
+        <v>12043463</v>
+      </c>
+      <c r="B3786" s="0" t="s">
         <v>3721</v>
       </c>
-      <c r="C3785" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3785" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3786" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3786" s="0" t="s">
+      <c r="C3786" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3786" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3787" s="0" t="n">
+        <v>11666570</v>
+      </c>
+      <c r="B3787" s="0" t="s">
         <v>3722</v>
       </c>
-      <c r="C3786" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3786" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3787" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3787" s="0" t="s">
+      <c r="C3787" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3787" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3788" s="0" t="n">
+        <v>11249671</v>
+      </c>
+      <c r="B3788" s="0" t="s">
         <v>3723</v>
       </c>
-      <c r="C3787" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3787" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3788" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3788" s="0" t="s">
+      <c r="C3788" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3788" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3789" s="0" t="n">
+        <v>14882506</v>
+      </c>
+      <c r="B3789" s="0" t="s">
         <v>3724</v>
       </c>
-      <c r="C3788" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3788" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3789" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3789" s="0" t="s">
+      <c r="C3789" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3789" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3790" s="0" t="n">
+        <v>11582548</v>
+      </c>
+      <c r="B3790" s="0" t="s">
         <v>3725</v>
       </c>
-      <c r="C3789" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3789" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3790" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3790" s="0" t="s">
+      <c r="C3790" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3790" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3791" s="0" t="n">
+        <v>11665725</v>
+      </c>
+      <c r="B3791" s="0" t="s">
         <v>3726</v>
       </c>
-      <c r="C3790" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3790" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3791" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3791" s="0" t="s">
+      <c r="C3791" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3791" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3792" s="0" t="n">
+        <v>11630612</v>
+      </c>
+      <c r="B3792" s="0" t="s">
         <v>3727</v>
       </c>
-      <c r="C3791" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3791" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3792" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3792" s="0" t="s">
+      <c r="C3792" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3792" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3793" s="0" t="n">
+        <v>12810744</v>
+      </c>
+      <c r="B3793" s="0" t="s">
         <v>3728</v>
       </c>
-      <c r="C3792" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3792" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3793" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3793" s="0" t="s">
+      <c r="C3793" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3793" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3794" s="0" t="n">
+        <v>11628919</v>
+      </c>
+      <c r="B3794" s="0" t="s">
         <v>3729</v>
       </c>
-      <c r="C3793" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3793" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3794" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3794" s="0" t="s">
+      <c r="C3794" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3794" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3795" s="0" t="n">
+        <v>12288802</v>
+      </c>
+      <c r="B3795" s="0" t="s">
         <v>3730</v>
       </c>
-      <c r="C3794" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3794" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3795" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3795" s="0" t="s">
+      <c r="C3795" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3795" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3796" s="0" t="n">
+        <v>14161089</v>
+      </c>
+      <c r="B3796" s="0" t="s">
         <v>3731</v>
       </c>
-      <c r="C3795" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3795" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3796" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3796" s="0" t="s">
+      <c r="C3796" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3796" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3797" s="0" t="n">
+        <v>11393729</v>
+      </c>
+      <c r="B3797" s="0" t="s">
         <v>3732</v>
       </c>
-      <c r="C3796" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3796" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3797" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3797" s="0" t="s">
+      <c r="C3797" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3797" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3798" s="0" t="n">
+        <v>10091794</v>
+      </c>
+      <c r="B3798" s="0" t="s">
         <v>3733</v>
       </c>
-      <c r="C3797" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3797" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3798" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3798" s="0" t="s">
+      <c r="C3798" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3798" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3799" s="0" t="n">
+        <v>10755461</v>
+      </c>
+      <c r="B3799" s="0" t="s">
         <v>3734</v>
       </c>
-      <c r="C3798" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3798" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3799" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3799" s="0" t="s">
+      <c r="C3799" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3799" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3800" s="0" t="n">
+        <v>11785613</v>
+      </c>
+      <c r="B3800" s="0" t="s">
         <v>3735</v>
       </c>
-      <c r="C3799" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3799" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3800" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3800" s="0" t="s">
+      <c r="C3800" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3800" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3801" s="0" t="n">
+        <v>10826675</v>
+      </c>
+      <c r="B3801" s="0" t="s">
         <v>3736</v>
       </c>
-      <c r="C3800" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3800" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3801" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3801" s="0" t="s">
+      <c r="C3801" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3801" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3802" s="0" t="n">
+        <v>11582092</v>
+      </c>
+      <c r="B3802" s="0" t="s">
         <v>3737</v>
       </c>
-      <c r="C3801" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3801" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3802" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3802" s="0" t="s">
+      <c r="C3802" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3802" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3803" s="0" t="n">
+        <v>11870951</v>
+      </c>
+      <c r="B3803" s="0" t="s">
         <v>3738</v>
       </c>
-      <c r="C3802" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3802" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3803" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3803" s="0" t="s">
+      <c r="C3803" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3803" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3804" s="0" t="n">
+        <v>11935120</v>
+      </c>
+      <c r="B3804" s="0" t="s">
         <v>3739</v>
       </c>
-      <c r="C3803" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3803" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3804" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3804" s="0" t="s">
+      <c r="C3804" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3804" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3805" s="0" t="n">
+        <v>12945042</v>
+      </c>
+      <c r="B3805" s="0" t="s">
         <v>3740</v>
-      </c>
-      <c r="C3804" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3804" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3805" s="0" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B3805" s="0" t="s">
-        <v>3741</v>
       </c>
       <c r="C3805" s="0" t="s">
         <v>1974</v>
@@ -64690,11 +64688,11 @@
       </c>
     </row>
     <row r="3806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3806" s="0" t="s">
-        <v>3698</v>
+      <c r="A3806" s="0" t="n">
+        <v>11090532</v>
       </c>
       <c r="B3806" s="0" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="C3806" s="0" t="s">
         <v>1974</v>
@@ -64704,11 +64702,11 @@
       </c>
     </row>
     <row r="3807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3807" s="0" t="s">
-        <v>3698</v>
+      <c r="A3807" s="0" t="n">
+        <v>11996600</v>
       </c>
       <c r="B3807" s="0" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C3807" s="0" t="s">
         <v>1974</v>
@@ -64718,11 +64716,11 @@
       </c>
     </row>
     <row r="3808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3808" s="0" t="s">
-        <v>3698</v>
+      <c r="A3808" s="0" t="n">
+        <v>11190067</v>
       </c>
       <c r="B3808" s="0" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="C3808" s="0" t="s">
         <v>1974</v>
@@ -64732,11 +64730,11 @@
       </c>
     </row>
     <row r="3809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3809" s="0" t="s">
-        <v>3698</v>
+      <c r="A3809" s="0" t="n">
+        <v>11089664</v>
       </c>
       <c r="B3809" s="0" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C3809" s="0" t="s">
         <v>1974</v>
@@ -64746,11 +64744,11 @@
       </c>
     </row>
     <row r="3810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3810" s="0" t="s">
-        <v>3698</v>
+      <c r="A3810" s="0" t="n">
+        <v>11835958</v>
       </c>
       <c r="B3810" s="0" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="C3810" s="0" t="s">
         <v>2163</v>
@@ -64760,11 +64758,11 @@
       </c>
     </row>
     <row r="3811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3811" s="0" t="s">
-        <v>3698</v>
+      <c r="A3811" s="0" t="n">
+        <v>10099821</v>
       </c>
       <c r="B3811" s="0" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C3811" s="0" t="s">
         <v>2163</v>
@@ -64774,11 +64772,11 @@
       </c>
     </row>
     <row r="3812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3812" s="0" t="s">
-        <v>3698</v>
+      <c r="A3812" s="0" t="n">
+        <v>12289626</v>
       </c>
       <c r="B3812" s="0" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C3812" s="0" t="s">
         <v>2163</v>
@@ -64788,11 +64786,11 @@
       </c>
     </row>
     <row r="3813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3813" s="0" t="s">
-        <v>3698</v>
+      <c r="A3813" s="0" t="n">
+        <v>10302564</v>
       </c>
       <c r="B3813" s="0" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C3813" s="0" t="s">
         <v>2163</v>
@@ -64802,11 +64800,11 @@
       </c>
     </row>
     <row r="3814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3814" s="0" t="s">
-        <v>3698</v>
+      <c r="A3814" s="0" t="n">
+        <v>10534145</v>
       </c>
       <c r="B3814" s="0" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C3814" s="0" t="s">
         <v>2163</v>
@@ -64816,11 +64814,11 @@
       </c>
     </row>
     <row r="3815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3815" s="0" t="s">
-        <v>3698</v>
+      <c r="A3815" s="0" t="n">
+        <v>10127641</v>
       </c>
       <c r="B3815" s="0" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="C3815" s="0" t="s">
         <v>2406</v>
@@ -64830,11 +64828,11 @@
       </c>
     </row>
     <row r="3816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3816" s="0" t="s">
-        <v>3698</v>
+      <c r="A3816" s="0" t="n">
+        <v>10302564</v>
       </c>
       <c r="B3816" s="0" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C3816" s="0" t="s">
         <v>2741</v>
@@ -64844,11 +64842,11 @@
       </c>
     </row>
     <row r="3817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3817" s="0" t="s">
-        <v>3698</v>
+      <c r="A3817" s="0" t="n">
+        <v>11594876</v>
       </c>
       <c r="B3817" s="0" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="C3817" s="0" t="s">
         <v>3164</v>
@@ -64858,11 +64856,11 @@
       </c>
     </row>
     <row r="3818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3818" s="0" t="s">
-        <v>3698</v>
+      <c r="A3818" s="0" t="n">
+        <v>80553894</v>
       </c>
       <c r="B3818" s="0" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="C3818" s="0" t="s">
         <v>3196</v>
@@ -64872,11 +64870,11 @@
       </c>
     </row>
     <row r="3819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3819" s="0" t="s">
-        <v>3698</v>
+      <c r="A3819" s="0" t="n">
+        <v>80396710</v>
       </c>
       <c r="B3819" s="0" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="C3819" s="0" t="s">
         <v>3196</v>
@@ -64886,11 +64884,11 @@
       </c>
     </row>
     <row r="3820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3820" s="0" t="s">
-        <v>3698</v>
+      <c r="A3820" s="0" t="n">
+        <v>11816228</v>
       </c>
       <c r="B3820" s="0" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C3820" s="0" t="s">
         <v>3196</v>
@@ -64900,11 +64898,11 @@
       </c>
     </row>
     <row r="3821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3821" s="0" t="s">
-        <v>3698</v>
+      <c r="A3821" s="0" t="n">
+        <v>80252856</v>
       </c>
       <c r="B3821" s="0" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C3821" s="0" t="s">
         <v>3196</v>
@@ -64914,11 +64912,11 @@
       </c>
     </row>
     <row r="3822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3822" s="0" t="s">
-        <v>3698</v>
+      <c r="A3822" s="0" t="n">
+        <v>80229691</v>
       </c>
       <c r="B3822" s="0" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C3822" s="0" t="s">
         <v>3196</v>
@@ -64928,11 +64926,11 @@
       </c>
     </row>
     <row r="3823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3823" s="0" t="s">
-        <v>3698</v>
+      <c r="A3823" s="0" t="n">
+        <v>80256736</v>
       </c>
       <c r="B3823" s="0" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C3823" s="0" t="s">
         <v>3196</v>
@@ -64942,11 +64940,11 @@
       </c>
     </row>
     <row r="3824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3824" s="0" t="s">
-        <v>3698</v>
+      <c r="A3824" s="0" t="n">
+        <v>11042214</v>
       </c>
       <c r="B3824" s="0" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C3824" s="0" t="s">
         <v>3196</v>
@@ -64956,11 +64954,11 @@
       </c>
     </row>
     <row r="3825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3825" s="0" t="s">
-        <v>3698</v>
+      <c r="A3825" s="0" t="n">
+        <v>80211001</v>
       </c>
       <c r="B3825" s="0" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C3825" s="0" t="s">
         <v>3196</v>
@@ -64970,11 +64968,11 @@
       </c>
     </row>
     <row r="3826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3826" s="0" t="s">
-        <v>3698</v>
+      <c r="A3826" s="0" t="n">
+        <v>80022085</v>
       </c>
       <c r="B3826" s="0" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="C3826" s="0" t="s">
         <v>3196</v>
@@ -64984,11 +64982,11 @@
       </c>
     </row>
     <row r="3827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3827" s="0" t="s">
-        <v>3698</v>
+      <c r="A3827" s="0" t="n">
+        <v>80361864</v>
       </c>
       <c r="B3827" s="0" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C3827" s="0" t="s">
         <v>3196</v>
@@ -64998,11 +64996,11 @@
       </c>
     </row>
     <row r="3828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3828" s="0" t="s">
-        <v>3698</v>
+      <c r="A3828" s="0" t="n">
+        <v>80276940</v>
       </c>
       <c r="B3828" s="0" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="C3828" s="0" t="s">
         <v>3196</v>
